--- a/portal_data.xlsx
+++ b/portal_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>2016-01-17 00:00:00-08</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>2016-01-17 21:00:00-08</t>
+  </si>
+  <si>
+    <t>2016-01-17 22:00:00-08</t>
+  </si>
+  <si>
+    <t>2016-01-17 23:00:00-08</t>
   </si>
   <si>
     <t>lane_1_occ</t>
@@ -437,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -456,25 +462,25 @@
   <sheetData>
     <row spans="1:7" r="1">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row spans="1:7" r="2">
@@ -983,6 +989,52 @@
         <v>201</v>
       </c>
     </row>
+    <row spans="1:7" r="24">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="C24" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>314</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F24" t="n">
+        <v>60</v>
+      </c>
+      <c r="G24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row spans="1:7" r="25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>60</v>
+      </c>
+      <c r="D25" t="n">
+        <v>222</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F25" t="n">
+        <v>60</v>
+      </c>
+      <c r="G25" t="n">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>